--- a/Code/Results/Cases/Case_4_145/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_145/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01391605993743</v>
+        <v>1.085101972571708</v>
       </c>
       <c r="D2">
-        <v>1.026193282718828</v>
+        <v>1.076127538284687</v>
       </c>
       <c r="E2">
-        <v>1.030488694678764</v>
+        <v>1.09771092208919</v>
       </c>
       <c r="F2">
-        <v>1.034881868274558</v>
+        <v>1.102347599429943</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044484147228905</v>
+        <v>1.05027148432415</v>
       </c>
       <c r="J2">
-        <v>1.035688364056931</v>
+        <v>1.089958490888531</v>
       </c>
       <c r="K2">
-        <v>1.037299376871117</v>
+        <v>1.078812289038594</v>
       </c>
       <c r="L2">
-        <v>1.04153900628222</v>
+        <v>1.100339972706455</v>
       </c>
       <c r="M2">
-        <v>1.045875726384767</v>
+        <v>1.104964990862307</v>
       </c>
       <c r="N2">
-        <v>1.037159160329007</v>
+        <v>1.091506356965579</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.026528748094415</v>
+        <v>1.087320635992203</v>
       </c>
       <c r="D3">
-        <v>1.036085691425239</v>
+        <v>1.077847353611072</v>
       </c>
       <c r="E3">
-        <v>1.042646109155722</v>
+        <v>1.099899771687645</v>
       </c>
       <c r="F3">
-        <v>1.047082174372743</v>
+        <v>1.10454703164576</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048744838187146</v>
+        <v>1.050882667152107</v>
       </c>
       <c r="J3">
-        <v>1.046321440514114</v>
+        <v>1.091834451802705</v>
       </c>
       <c r="K3">
-        <v>1.046276765280579</v>
+        <v>1.080347343488697</v>
       </c>
       <c r="L3">
-        <v>1.05276092253442</v>
+        <v>1.102347057972067</v>
       </c>
       <c r="M3">
-        <v>1.057146089714958</v>
+        <v>1.10698349928836</v>
       </c>
       <c r="N3">
-        <v>1.047807336974391</v>
+        <v>1.093384981959427</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.034307118266825</v>
+        <v>1.088750260508363</v>
       </c>
       <c r="D4">
-        <v>1.04218697014287</v>
+        <v>1.078954610733508</v>
       </c>
       <c r="E4">
-        <v>1.050150506352617</v>
+        <v>1.101310432426495</v>
       </c>
       <c r="F4">
-        <v>1.05461365554146</v>
+        <v>1.105964536251188</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051354564775717</v>
+        <v>1.051273979814478</v>
       </c>
       <c r="J4">
-        <v>1.052872172971241</v>
+        <v>1.093042158161293</v>
       </c>
       <c r="K4">
-        <v>1.051801562152473</v>
+        <v>1.081334590251575</v>
       </c>
       <c r="L4">
-        <v>1.059679113047959</v>
+        <v>1.103639729384229</v>
       </c>
       <c r="M4">
-        <v>1.064094766788954</v>
+        <v>1.108283557506727</v>
       </c>
       <c r="N4">
-        <v>1.054367372222986</v>
+        <v>1.09459440339957</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.03749375244234</v>
+        <v>1.089349872293312</v>
       </c>
       <c r="D5">
-        <v>1.044686414829738</v>
+        <v>1.079418791778182</v>
       </c>
       <c r="E5">
-        <v>1.053226384132817</v>
+        <v>1.101902148863568</v>
       </c>
       <c r="F5">
-        <v>1.057700770354373</v>
+        <v>1.106559129045453</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052419278264379</v>
+        <v>1.051437501754988</v>
       </c>
       <c r="J5">
-        <v>1.055554125646787</v>
+        <v>1.093548430943893</v>
       </c>
       <c r="K5">
-        <v>1.05406199881069</v>
+        <v>1.081748208062571</v>
       </c>
       <c r="L5">
-        <v>1.062512628195371</v>
+        <v>1.1041817513921</v>
       </c>
       <c r="M5">
-        <v>1.066940908430297</v>
+        <v>1.108828683911388</v>
       </c>
       <c r="N5">
-        <v>1.057053133578955</v>
+        <v>1.095101395147592</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.038024130301757</v>
+        <v>1.089450468492413</v>
       </c>
       <c r="D6">
-        <v>1.045102404342642</v>
+        <v>1.079496653748069</v>
       </c>
       <c r="E6">
-        <v>1.05373841136346</v>
+        <v>1.10200142387411</v>
       </c>
       <c r="F6">
-        <v>1.058214675899391</v>
+        <v>1.106658886964871</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052596222272265</v>
+        <v>1.051464900307689</v>
       </c>
       <c r="J6">
-        <v>1.056000399473388</v>
+        <v>1.093633352362178</v>
       </c>
       <c r="K6">
-        <v>1.054438043656623</v>
+        <v>1.081817573703467</v>
       </c>
       <c r="L6">
-        <v>1.062984187676911</v>
+        <v>1.104272677059401</v>
       </c>
       <c r="M6">
-        <v>1.06741457725021</v>
+        <v>1.108920130764398</v>
       </c>
       <c r="N6">
-        <v>1.057500041165579</v>
+        <v>1.095186437164031</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.034350015872154</v>
+        <v>1.088758278015277</v>
       </c>
       <c r="D7">
-        <v>1.042220617773887</v>
+        <v>1.078960818255682</v>
       </c>
       <c r="E7">
-        <v>1.050191907269545</v>
+        <v>1.101318344134644</v>
       </c>
       <c r="F7">
-        <v>1.054655207179775</v>
+        <v>1.105972486396383</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051368915460882</v>
+        <v>1.05127616866195</v>
       </c>
       <c r="J7">
-        <v>1.052908283759453</v>
+        <v>1.093048928649446</v>
       </c>
       <c r="K7">
-        <v>1.051832003477282</v>
+        <v>1.081340122582778</v>
       </c>
       <c r="L7">
-        <v>1.059717260082834</v>
+        <v>1.103646977435758</v>
       </c>
       <c r="M7">
-        <v>1.064133083266291</v>
+        <v>1.108290847043193</v>
       </c>
       <c r="N7">
-        <v>1.054403534292659</v>
+        <v>1.094601183502593</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.018263243638797</v>
+        <v>1.085853042909693</v>
       </c>
       <c r="D8">
-        <v>1.029602594807257</v>
+        <v>1.076709928502908</v>
       </c>
       <c r="E8">
-        <v>1.034677409357336</v>
+        <v>1.098451847967939</v>
       </c>
       <c r="F8">
-        <v>1.039085224189148</v>
+        <v>1.103092102602441</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045956393233105</v>
+        <v>1.050478905077554</v>
       </c>
       <c r="J8">
-        <v>1.039354613978148</v>
+        <v>1.090593774986839</v>
       </c>
       <c r="K8">
-        <v>1.040395971459366</v>
+        <v>1.079332332440152</v>
       </c>
       <c r="L8">
-        <v>1.045407279836892</v>
+        <v>1.101019547177929</v>
       </c>
       <c r="M8">
-        <v>1.049760561754975</v>
+        <v>1.105648426898199</v>
       </c>
       <c r="N8">
-        <v>1.040830616745638</v>
+        <v>1.092142543240175</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9865302616012569</v>
+        <v>1.080686168704518</v>
       </c>
       <c r="D9">
-        <v>1.004731269137352</v>
+        <v>1.07269968736428</v>
       </c>
       <c r="E9">
-        <v>1.004139564549861</v>
+        <v>1.093355812279202</v>
       </c>
       <c r="F9">
-        <v>1.008443909141412</v>
+        <v>1.097971561376338</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035136625225781</v>
+        <v>1.049041645189526</v>
       </c>
       <c r="J9">
-        <v>1.012567804794995</v>
+        <v>1.086218937338253</v>
       </c>
       <c r="K9">
-        <v>1.017748048373297</v>
+        <v>1.07574701709059</v>
       </c>
       <c r="L9">
-        <v>1.017165835348348</v>
+        <v>1.096341979827865</v>
       </c>
       <c r="M9">
-        <v>1.021401459380431</v>
+        <v>1.100944403760877</v>
       </c>
       <c r="N9">
-        <v>1.014005767220955</v>
+        <v>1.087761492820327</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9622829809300445</v>
+        <v>1.077207501509894</v>
       </c>
       <c r="D10">
-        <v>0.9857671586297578</v>
+        <v>1.069995046821423</v>
       </c>
       <c r="E10">
-        <v>0.9808676515520791</v>
+        <v>1.089926194372177</v>
       </c>
       <c r="F10">
-        <v>0.9850982768769095</v>
+        <v>1.094525577128141</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026784805346495</v>
+        <v>1.04806100616259</v>
       </c>
       <c r="J10">
-        <v>0.9920772977734439</v>
+        <v>1.083267877758757</v>
       </c>
       <c r="K10">
-        <v>1.000398236062263</v>
+        <v>1.073323425778192</v>
       </c>
       <c r="L10">
-        <v>0.9955911577371235</v>
+        <v>1.093189574187706</v>
       </c>
       <c r="M10">
-        <v>0.9997419019338672</v>
+        <v>1.0977743253434</v>
       </c>
       <c r="N10">
-        <v>0.9934861613291385</v>
+        <v>1.084806242397737</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9507901890402417</v>
+        <v>1.075692629223227</v>
       </c>
       <c r="D11">
-        <v>0.9767964803031067</v>
+        <v>1.068816150654583</v>
       </c>
       <c r="E11">
-        <v>0.9698570468392962</v>
+        <v>1.088433014146284</v>
       </c>
       <c r="F11">
-        <v>0.9740543860846156</v>
+        <v>1.093025301658855</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022810692832374</v>
+        <v>1.04763089312032</v>
       </c>
       <c r="J11">
-        <v>0.9823637935609171</v>
+        <v>1.081981433604305</v>
       </c>
       <c r="K11">
-        <v>0.9921696610167733</v>
+        <v>1.072265715598458</v>
       </c>
       <c r="L11">
-        <v>0.9853707183392973</v>
+        <v>1.091816036350159</v>
       </c>
       <c r="M11">
-        <v>0.9894827662425628</v>
+        <v>1.096393124862868</v>
       </c>
       <c r="N11">
-        <v>0.9837588628264755</v>
+        <v>1.083517971345028</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9463410615504603</v>
+        <v>1.075128605933752</v>
       </c>
       <c r="D12">
-        <v>0.9733273869845944</v>
+        <v>1.068377056807712</v>
       </c>
       <c r="E12">
-        <v>0.9655981494035785</v>
+        <v>1.087877118159009</v>
       </c>
       <c r="F12">
-        <v>0.9697828959595802</v>
+        <v>1.09246676877537</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021270430039034</v>
+        <v>1.047470291506783</v>
       </c>
       <c r="J12">
-        <v>0.9786037409328006</v>
+        <v>1.081502260064598</v>
       </c>
       <c r="K12">
-        <v>0.9889840760206264</v>
+        <v>1.07187156057857</v>
       </c>
       <c r="L12">
-        <v>0.9814155075482383</v>
+        <v>1.091304524120387</v>
       </c>
       <c r="M12">
-        <v>0.98551284498989</v>
+        <v>1.095878764705094</v>
       </c>
       <c r="N12">
-        <v>0.9799934704923432</v>
+        <v>1.083038117323933</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9473041744182887</v>
+        <v>1.075249651818349</v>
       </c>
       <c r="D13">
-        <v>0.974078166472838</v>
+        <v>1.068471298721851</v>
       </c>
       <c r="E13">
-        <v>0.9665199114978112</v>
+        <v>1.087996417517319</v>
       </c>
       <c r="F13">
-        <v>0.9707073699889726</v>
+        <v>1.092586633822617</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021603924595314</v>
+        <v>1.047504779263336</v>
       </c>
       <c r="J13">
-        <v>0.9794176668386519</v>
+        <v>1.081605105233737</v>
       </c>
       <c r="K13">
-        <v>0.9896736595144436</v>
+        <v>1.071956166331634</v>
       </c>
       <c r="L13">
-        <v>0.9822716300276353</v>
+        <v>1.091414305544611</v>
       </c>
       <c r="M13">
-        <v>0.9863721389964571</v>
+        <v>1.095989157098001</v>
       </c>
       <c r="N13">
-        <v>0.9808085522663396</v>
+        <v>1.083141108545008</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9504263130095646</v>
+        <v>1.075646034307278</v>
       </c>
       <c r="D14">
-        <v>0.9765126770810919</v>
+        <v>1.068779879673875</v>
       </c>
       <c r="E14">
-        <v>0.969508653373178</v>
+        <v>1.088387089599172</v>
       </c>
       <c r="F14">
-        <v>0.9737049565157422</v>
+        <v>1.092979159174529</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022684753450391</v>
+        <v>1.047617634925636</v>
       </c>
       <c r="J14">
-        <v>0.9820562654851553</v>
+        <v>1.0819418523333</v>
       </c>
       <c r="K14">
-        <v>0.9919091228540948</v>
+        <v>1.072233160796711</v>
       </c>
       <c r="L14">
-        <v>0.9850472068821802</v>
+        <v>1.091773781723202</v>
       </c>
       <c r="M14">
-        <v>0.9891580459847443</v>
+        <v>1.096350634860446</v>
       </c>
       <c r="N14">
-        <v>0.9834508980255725</v>
+        <v>1.083478333864078</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.952324996338429</v>
+        <v>1.075890080824916</v>
       </c>
       <c r="D15">
-        <v>0.9779936991813677</v>
+        <v>1.068969846690537</v>
       </c>
       <c r="E15">
-        <v>0.9713266968788492</v>
+        <v>1.088627627063665</v>
       </c>
       <c r="F15">
-        <v>0.97552841843717</v>
+        <v>1.093220838309571</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023341829046647</v>
+        <v>1.047687057503558</v>
       </c>
       <c r="J15">
-        <v>0.9836609426373604</v>
+        <v>1.082149155876027</v>
       </c>
       <c r="K15">
-        <v>0.9932685951842584</v>
+        <v>1.072403656440634</v>
       </c>
       <c r="L15">
-        <v>0.9867353284556286</v>
+        <v>1.091995090908085</v>
       </c>
       <c r="M15">
-        <v>0.990852486126112</v>
+        <v>1.096573177059999</v>
       </c>
       <c r="N15">
-        <v>0.9850578540033926</v>
+        <v>1.083685931801614</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9630223584997205</v>
+        <v>1.077307854098073</v>
       </c>
       <c r="D16">
-        <v>0.9863447167003275</v>
+        <v>1.070073119865491</v>
       </c>
       <c r="E16">
-        <v>0.9815764552353565</v>
+        <v>1.090025117034085</v>
       </c>
       <c r="F16">
-        <v>0.9858092589275551</v>
+        <v>1.09462497048778</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027040202932507</v>
+        <v>1.048089434520652</v>
       </c>
       <c r="J16">
-        <v>0.9927022152123307</v>
+        <v>1.08335307019607</v>
       </c>
       <c r="K16">
-        <v>1.000927560191828</v>
+        <v>1.073393445494802</v>
       </c>
       <c r="L16">
-        <v>0.9962488326028616</v>
+        <v>1.093280548498355</v>
       </c>
       <c r="M16">
-        <v>1.000402100390093</v>
+        <v>1.097865807970763</v>
       </c>
       <c r="N16">
-        <v>0.994111966222468</v>
+        <v>1.084891555818082</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.969447489545743</v>
+        <v>1.078194857383044</v>
       </c>
       <c r="D17">
-        <v>0.9913657114395493</v>
+        <v>1.070763071509787</v>
       </c>
       <c r="E17">
-        <v>0.9877381379961593</v>
+        <v>1.090899519777784</v>
       </c>
       <c r="F17">
-        <v>0.9919900573486241</v>
+        <v>1.095503537344602</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029257931777887</v>
+        <v>1.048340355612393</v>
       </c>
       <c r="J17">
-        <v>0.9981325888743099</v>
+        <v>1.084105921586004</v>
       </c>
       <c r="K17">
-        <v>1.005526843859976</v>
+        <v>1.074012076082223</v>
       </c>
       <c r="L17">
-        <v>1.001964633020593</v>
+        <v>1.094084572783395</v>
       </c>
       <c r="M17">
-        <v>1.006140002761966</v>
+        <v>1.098674329052839</v>
       </c>
       <c r="N17">
-        <v>0.9995500516379195</v>
+        <v>1.085645476343344</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9731017945878406</v>
+        <v>1.078711405816565</v>
       </c>
       <c r="D18">
-        <v>0.9942229818349734</v>
+        <v>1.071164761236401</v>
       </c>
       <c r="E18">
-        <v>0.9912443782647531</v>
+        <v>1.091408762152629</v>
       </c>
       <c r="F18">
-        <v>0.9955073174913887</v>
+        <v>1.096015207763886</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030517815790863</v>
+        <v>1.048486184883825</v>
       </c>
       <c r="J18">
-        <v>1.001220964729842</v>
+        <v>1.084544218251522</v>
       </c>
       <c r="K18">
-        <v>1.008142184838835</v>
+        <v>1.074372116107896</v>
       </c>
       <c r="L18">
-        <v>1.005215976252356</v>
+        <v>1.094552726587759</v>
       </c>
       <c r="M18">
-        <v>1.009404053744178</v>
+        <v>1.099145104787371</v>
       </c>
       <c r="N18">
-        <v>1.002642813341409</v>
+        <v>1.0860843954404</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9743327746051124</v>
+        <v>1.07888739671956</v>
       </c>
       <c r="D19">
-        <v>0.9951857174649453</v>
+        <v>1.071301601245152</v>
       </c>
       <c r="E19">
-        <v>0.9924257679553057</v>
+        <v>1.09158226922414</v>
       </c>
       <c r="F19">
-        <v>0.9966924433035906</v>
+        <v>1.096189542601885</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030941957357101</v>
+        <v>1.048535819621116</v>
       </c>
       <c r="J19">
-        <v>1.002261268689403</v>
+        <v>1.084693526600763</v>
       </c>
       <c r="K19">
-        <v>1.009023079636848</v>
+        <v>1.074494746228679</v>
       </c>
       <c r="L19">
-        <v>1.006311282803199</v>
+        <v>1.09471221700616</v>
       </c>
       <c r="M19">
-        <v>1.010503663321793</v>
+        <v>1.099305489055155</v>
       </c>
       <c r="N19">
-        <v>1.003684594651916</v>
+        <v>1.086233915824623</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9687679847688907</v>
+        <v>1.078099776021926</v>
       </c>
       <c r="D20">
-        <v>0.9908345345323385</v>
+        <v>1.070689123765358</v>
       </c>
       <c r="E20">
-        <v>0.9870863062630796</v>
+        <v>1.090805785810445</v>
       </c>
       <c r="F20">
-        <v>0.9913361882914653</v>
+        <v>1.095409356692277</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02902353918082</v>
+        <v>1.048313488944043</v>
       </c>
       <c r="J20">
-        <v>0.9975583007490308</v>
+        <v>1.084025233746835</v>
       </c>
       <c r="K20">
-        <v>1.005040485193301</v>
+        <v>1.073945785503638</v>
       </c>
       <c r="L20">
-        <v>1.001360092809643</v>
+        <v>1.093998393674007</v>
       </c>
       <c r="M20">
-        <v>1.005533110541121</v>
+        <v>1.098587667581639</v>
       </c>
       <c r="N20">
-        <v>0.9989749479576308</v>
+        <v>1.085564673918187</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9495121932841349</v>
+        <v>1.075529346664147</v>
       </c>
       <c r="D21">
-        <v>0.9757997764652365</v>
+        <v>1.068689043642566</v>
       </c>
       <c r="E21">
-        <v>0.9686334877419878</v>
+        <v>1.088272081584365</v>
       </c>
       <c r="F21">
-        <v>0.972827192873375</v>
+        <v>1.09286360545776</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022368345326956</v>
+        <v>1.047584425003205</v>
       </c>
       <c r="J21">
-        <v>0.9812837077958937</v>
+        <v>1.081842725741099</v>
       </c>
       <c r="K21">
-        <v>0.9912546065322086</v>
+        <v>1.072151628257106</v>
       </c>
       <c r="L21">
-        <v>0.9842345137296772</v>
+        <v>1.091667961673217</v>
       </c>
       <c r="M21">
-        <v>0.9883423205797207</v>
+        <v>1.096244225441504</v>
       </c>
       <c r="N21">
-        <v>0.9826772432157784</v>
+        <v>1.083379066500746</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9363392332341772</v>
+        <v>1.073905486113721</v>
       </c>
       <c r="D22">
-        <v>0.965536900473719</v>
+        <v>1.0674245586628</v>
       </c>
       <c r="E22">
-        <v>0.9560314218477691</v>
+        <v>1.086671716939462</v>
       </c>
       <c r="F22">
-        <v>0.9601884692215367</v>
+        <v>1.091255658175646</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01780526179666</v>
+        <v>1.047121175426844</v>
       </c>
       <c r="J22">
-        <v>0.9701521620845158</v>
+        <v>1.080462777614424</v>
       </c>
       <c r="K22">
-        <v>0.9818234527956997</v>
+        <v>1.071016181793307</v>
       </c>
       <c r="L22">
-        <v>0.9725272956436549</v>
+        <v>1.090195075104456</v>
       </c>
       <c r="M22">
-        <v>0.9765921218768208</v>
+        <v>1.094763149080453</v>
       </c>
       <c r="N22">
-        <v>0.9715298894326844</v>
+        <v>1.081997158689449</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9434366955981203</v>
+        <v>1.074767072295433</v>
       </c>
       <c r="D23">
-        <v>0.9710639625182205</v>
+        <v>1.068095556223669</v>
       </c>
       <c r="E23">
-        <v>0.962819058156662</v>
+        <v>1.087520808468652</v>
       </c>
       <c r="F23">
-        <v>0.9669956738254083</v>
+        <v>1.092108770225386</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020264530590618</v>
+        <v>1.047367217922213</v>
       </c>
       <c r="J23">
-        <v>0.9761493487105768</v>
+        <v>1.081195058213999</v>
       </c>
       <c r="K23">
-        <v>0.9869046112704494</v>
+        <v>1.071618814130929</v>
       </c>
       <c r="L23">
-        <v>0.9788340309709432</v>
+        <v>1.090976618370037</v>
       </c>
       <c r="M23">
-        <v>0.9829218476410139</v>
+        <v>1.095549034888502</v>
       </c>
       <c r="N23">
-        <v>0.977535592751641</v>
+        <v>1.082730479211469</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9690753100302171</v>
+        <v>1.078142741745585</v>
       </c>
       <c r="D24">
-        <v>0.9910747694799819</v>
+        <v>1.070722539876213</v>
       </c>
       <c r="E24">
-        <v>0.9873811101137251</v>
+        <v>1.090848142570163</v>
       </c>
       <c r="F24">
-        <v>0.9916319131210352</v>
+        <v>1.095451915292219</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029129554440348</v>
+        <v>1.048325630468324</v>
       </c>
       <c r="J24">
-        <v>0.9978180393321562</v>
+        <v>1.084061695667741</v>
       </c>
       <c r="K24">
-        <v>1.005260456298757</v>
+        <v>1.073975741823325</v>
       </c>
       <c r="L24">
-        <v>1.001633511789003</v>
+        <v>1.094037336836128</v>
       </c>
       <c r="M24">
-        <v>1.005807592857661</v>
+        <v>1.098626828705309</v>
       </c>
       <c r="N24">
-        <v>0.9992350553993368</v>
+        <v>1.085601187619204</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9952078137784379</v>
+        <v>1.082027776432071</v>
       </c>
       <c r="D25">
-        <v>1.011528003812085</v>
+        <v>1.073741798674359</v>
       </c>
       <c r="E25">
-        <v>1.012481361773974</v>
+        <v>1.094678791962751</v>
       </c>
       <c r="F25">
-        <v>1.0168132177601</v>
+        <v>1.099300881005407</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038110423398895</v>
+        <v>1.049417119337198</v>
       </c>
       <c r="J25">
-        <v>1.019897537438726</v>
+        <v>1.087355880284098</v>
       </c>
       <c r="K25">
-        <v>1.023949959885931</v>
+        <v>1.07667967491328</v>
       </c>
       <c r="L25">
-        <v>1.024888961916823</v>
+        <v>1.097557095216537</v>
       </c>
       <c r="M25">
-        <v>1.029156018735061</v>
+        <v>1.102166364316597</v>
       </c>
       <c r="N25">
-        <v>1.021345908925772</v>
+        <v>1.088900050355564</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_145/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_145/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.085101972571708</v>
+        <v>1.013916059937433</v>
       </c>
       <c r="D2">
-        <v>1.076127538284687</v>
+        <v>1.02619328271883</v>
       </c>
       <c r="E2">
-        <v>1.09771092208919</v>
+        <v>1.030488694678767</v>
       </c>
       <c r="F2">
-        <v>1.102347599429943</v>
+        <v>1.034881868274561</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05027148432415</v>
+        <v>1.044484147228907</v>
       </c>
       <c r="J2">
-        <v>1.089958490888531</v>
+        <v>1.035688364056933</v>
       </c>
       <c r="K2">
-        <v>1.078812289038594</v>
+        <v>1.03729937687112</v>
       </c>
       <c r="L2">
-        <v>1.100339972706455</v>
+        <v>1.041539006282224</v>
       </c>
       <c r="M2">
-        <v>1.104964990862307</v>
+        <v>1.045875726384771</v>
       </c>
       <c r="N2">
-        <v>1.091506356965579</v>
+        <v>1.03715916032901</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.087320635992203</v>
+        <v>1.026528748094414</v>
       </c>
       <c r="D3">
-        <v>1.077847353611072</v>
+        <v>1.036085691425239</v>
       </c>
       <c r="E3">
-        <v>1.099899771687645</v>
+        <v>1.04264610915572</v>
       </c>
       <c r="F3">
-        <v>1.10454703164576</v>
+        <v>1.047082174372741</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050882667152107</v>
+        <v>1.048744838187145</v>
       </c>
       <c r="J3">
-        <v>1.091834451802705</v>
+        <v>1.046321440514113</v>
       </c>
       <c r="K3">
-        <v>1.080347343488697</v>
+        <v>1.046276765280578</v>
       </c>
       <c r="L3">
-        <v>1.102347057972067</v>
+        <v>1.052760922534419</v>
       </c>
       <c r="M3">
-        <v>1.10698349928836</v>
+        <v>1.057146089714957</v>
       </c>
       <c r="N3">
-        <v>1.093384981959427</v>
+        <v>1.04780733697439</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.088750260508363</v>
+        <v>1.034307118266826</v>
       </c>
       <c r="D4">
-        <v>1.078954610733508</v>
+        <v>1.042186970142871</v>
       </c>
       <c r="E4">
-        <v>1.101310432426495</v>
+        <v>1.050150506352619</v>
       </c>
       <c r="F4">
-        <v>1.105964536251188</v>
+        <v>1.054613655541462</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051273979814478</v>
+        <v>1.051354564775717</v>
       </c>
       <c r="J4">
-        <v>1.093042158161293</v>
+        <v>1.052872172971242</v>
       </c>
       <c r="K4">
-        <v>1.081334590251575</v>
+        <v>1.051801562152474</v>
       </c>
       <c r="L4">
-        <v>1.103639729384229</v>
+        <v>1.059679113047961</v>
       </c>
       <c r="M4">
-        <v>1.108283557506727</v>
+        <v>1.064094766788956</v>
       </c>
       <c r="N4">
-        <v>1.09459440339957</v>
+        <v>1.054367372222988</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.089349872293312</v>
+        <v>1.03749375244234</v>
       </c>
       <c r="D5">
-        <v>1.079418791778182</v>
+        <v>1.044686414829738</v>
       </c>
       <c r="E5">
-        <v>1.101902148863568</v>
+        <v>1.053226384132818</v>
       </c>
       <c r="F5">
-        <v>1.106559129045453</v>
+        <v>1.057700770354373</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051437501754988</v>
+        <v>1.052419278264379</v>
       </c>
       <c r="J5">
-        <v>1.093548430943893</v>
+        <v>1.055554125646787</v>
       </c>
       <c r="K5">
-        <v>1.081748208062571</v>
+        <v>1.05406199881069</v>
       </c>
       <c r="L5">
-        <v>1.1041817513921</v>
+        <v>1.062512628195371</v>
       </c>
       <c r="M5">
-        <v>1.108828683911388</v>
+        <v>1.066940908430298</v>
       </c>
       <c r="N5">
-        <v>1.095101395147592</v>
+        <v>1.057053133578956</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.089450468492413</v>
+        <v>1.038024130301755</v>
       </c>
       <c r="D6">
-        <v>1.079496653748069</v>
+        <v>1.045102404342641</v>
       </c>
       <c r="E6">
-        <v>1.10200142387411</v>
+        <v>1.053738411363458</v>
       </c>
       <c r="F6">
-        <v>1.106658886964871</v>
+        <v>1.058214675899388</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051464900307689</v>
+        <v>1.052596222272265</v>
       </c>
       <c r="J6">
-        <v>1.093633352362178</v>
+        <v>1.056000399473386</v>
       </c>
       <c r="K6">
-        <v>1.081817573703467</v>
+        <v>1.054438043656621</v>
       </c>
       <c r="L6">
-        <v>1.104272677059401</v>
+        <v>1.062984187676908</v>
       </c>
       <c r="M6">
-        <v>1.108920130764398</v>
+        <v>1.067414577250208</v>
       </c>
       <c r="N6">
-        <v>1.095186437164031</v>
+        <v>1.057500041165577</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.088758278015277</v>
+        <v>1.034350015872153</v>
       </c>
       <c r="D7">
-        <v>1.078960818255682</v>
+        <v>1.042220617773885</v>
       </c>
       <c r="E7">
-        <v>1.101318344134644</v>
+        <v>1.050191907269544</v>
       </c>
       <c r="F7">
-        <v>1.105972486396383</v>
+        <v>1.054655207179774</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05127616866195</v>
+        <v>1.051368915460882</v>
       </c>
       <c r="J7">
-        <v>1.093048928649446</v>
+        <v>1.052908283759452</v>
       </c>
       <c r="K7">
-        <v>1.081340122582778</v>
+        <v>1.051832003477281</v>
       </c>
       <c r="L7">
-        <v>1.103646977435758</v>
+        <v>1.059717260082833</v>
       </c>
       <c r="M7">
-        <v>1.108290847043193</v>
+        <v>1.064133083266289</v>
       </c>
       <c r="N7">
-        <v>1.094601183502593</v>
+        <v>1.054403534292659</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>1.085853042909693</v>
+        <v>1.018263243638797</v>
       </c>
       <c r="D8">
-        <v>1.076709928502908</v>
+        <v>1.029602594807257</v>
       </c>
       <c r="E8">
-        <v>1.098451847967939</v>
+        <v>1.034677409357336</v>
       </c>
       <c r="F8">
-        <v>1.103092102602441</v>
+        <v>1.039085224189148</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050478905077554</v>
+        <v>1.045956393233104</v>
       </c>
       <c r="J8">
-        <v>1.090593774986839</v>
+        <v>1.039354613978148</v>
       </c>
       <c r="K8">
-        <v>1.079332332440152</v>
+        <v>1.040395971459365</v>
       </c>
       <c r="L8">
-        <v>1.101019547177929</v>
+        <v>1.045407279836892</v>
       </c>
       <c r="M8">
-        <v>1.105648426898199</v>
+        <v>1.049760561754975</v>
       </c>
       <c r="N8">
-        <v>1.092142543240175</v>
+        <v>1.040830616745638</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.080686168704518</v>
+        <v>0.9865302616012553</v>
       </c>
       <c r="D9">
-        <v>1.07269968736428</v>
+        <v>1.00473126913735</v>
       </c>
       <c r="E9">
-        <v>1.093355812279202</v>
+        <v>1.004139564549859</v>
       </c>
       <c r="F9">
-        <v>1.097971561376338</v>
+        <v>1.00844390914141</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049041645189526</v>
+        <v>1.035136625225781</v>
       </c>
       <c r="J9">
-        <v>1.086218937338253</v>
+        <v>1.012567804794994</v>
       </c>
       <c r="K9">
-        <v>1.07574701709059</v>
+        <v>1.017748048373296</v>
       </c>
       <c r="L9">
-        <v>1.096341979827865</v>
+        <v>1.017165835348347</v>
       </c>
       <c r="M9">
-        <v>1.100944403760877</v>
+        <v>1.021401459380429</v>
       </c>
       <c r="N9">
-        <v>1.087761492820327</v>
+        <v>1.014005767220953</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.077207501509894</v>
+        <v>0.9622829809300405</v>
       </c>
       <c r="D10">
-        <v>1.069995046821423</v>
+        <v>0.9857671586297546</v>
       </c>
       <c r="E10">
-        <v>1.089926194372177</v>
+        <v>0.9808676515520749</v>
       </c>
       <c r="F10">
-        <v>1.094525577128141</v>
+        <v>0.9850982768769052</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04806100616259</v>
+        <v>1.026784805346493</v>
       </c>
       <c r="J10">
-        <v>1.083267877758757</v>
+        <v>0.9920772977734399</v>
       </c>
       <c r="K10">
-        <v>1.073323425778192</v>
+        <v>1.00039823606226</v>
       </c>
       <c r="L10">
-        <v>1.093189574187706</v>
+        <v>0.9955911577371191</v>
       </c>
       <c r="M10">
-        <v>1.0977743253434</v>
+        <v>0.999741901933863</v>
       </c>
       <c r="N10">
-        <v>1.084806242397737</v>
+        <v>0.993486161329135</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.075692629223227</v>
+        <v>0.9507901890402385</v>
       </c>
       <c r="D11">
-        <v>1.068816150654583</v>
+        <v>0.9767964803031041</v>
       </c>
       <c r="E11">
-        <v>1.088433014146284</v>
+        <v>0.9698570468392925</v>
       </c>
       <c r="F11">
-        <v>1.093025301658855</v>
+        <v>0.974054386084612</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04763089312032</v>
+        <v>1.022810692832373</v>
       </c>
       <c r="J11">
-        <v>1.081981433604305</v>
+        <v>0.9823637935609139</v>
       </c>
       <c r="K11">
-        <v>1.072265715598458</v>
+        <v>0.9921696610167707</v>
       </c>
       <c r="L11">
-        <v>1.091816036350159</v>
+        <v>0.9853707183392938</v>
       </c>
       <c r="M11">
-        <v>1.096393124862868</v>
+        <v>0.9894827662425594</v>
       </c>
       <c r="N11">
-        <v>1.083517971345028</v>
+        <v>0.9837588628264722</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.075128605933752</v>
+        <v>0.9463410615504687</v>
       </c>
       <c r="D12">
-        <v>1.068377056807712</v>
+        <v>0.9733273869846013</v>
       </c>
       <c r="E12">
-        <v>1.087877118159009</v>
+        <v>0.9655981494035869</v>
       </c>
       <c r="F12">
-        <v>1.09246676877537</v>
+        <v>0.9697828959595882</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047470291506783</v>
+        <v>1.021270430039037</v>
       </c>
       <c r="J12">
-        <v>1.081502260064598</v>
+        <v>0.9786037409328086</v>
       </c>
       <c r="K12">
-        <v>1.07187156057857</v>
+        <v>0.9889840760206332</v>
       </c>
       <c r="L12">
-        <v>1.091304524120387</v>
+        <v>0.9814155075482461</v>
       </c>
       <c r="M12">
-        <v>1.095878764705094</v>
+        <v>0.985512844989898</v>
       </c>
       <c r="N12">
-        <v>1.083038117323933</v>
+        <v>0.9799934704923512</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.075249651818349</v>
+        <v>0.9473041744182881</v>
       </c>
       <c r="D13">
-        <v>1.068471298721851</v>
+        <v>0.9740781664728375</v>
       </c>
       <c r="E13">
-        <v>1.087996417517319</v>
+        <v>0.9665199114978109</v>
       </c>
       <c r="F13">
-        <v>1.092586633822617</v>
+        <v>0.9707073699889723</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047504779263336</v>
+        <v>1.021603924595314</v>
       </c>
       <c r="J13">
-        <v>1.081605105233737</v>
+        <v>0.9794176668386514</v>
       </c>
       <c r="K13">
-        <v>1.071956166331634</v>
+        <v>0.9896736595144432</v>
       </c>
       <c r="L13">
-        <v>1.091414305544611</v>
+        <v>0.982271630027635</v>
       </c>
       <c r="M13">
-        <v>1.095989157098001</v>
+        <v>0.9863721389964569</v>
       </c>
       <c r="N13">
-        <v>1.083141108545008</v>
+        <v>0.9808085522663386</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.075646034307278</v>
+        <v>0.950426313009568</v>
       </c>
       <c r="D14">
-        <v>1.068779879673875</v>
+        <v>0.9765126770810945</v>
       </c>
       <c r="E14">
-        <v>1.088387089599172</v>
+        <v>0.9695086533731813</v>
       </c>
       <c r="F14">
-        <v>1.092979159174529</v>
+        <v>0.9737049565157457</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047617634925636</v>
+        <v>1.022684753450392</v>
       </c>
       <c r="J14">
-        <v>1.0819418523333</v>
+        <v>0.9820562654851586</v>
       </c>
       <c r="K14">
-        <v>1.072233160796711</v>
+        <v>0.9919091228540974</v>
       </c>
       <c r="L14">
-        <v>1.091773781723202</v>
+        <v>0.9850472068821834</v>
       </c>
       <c r="M14">
-        <v>1.096350634860446</v>
+        <v>0.989158045984748</v>
       </c>
       <c r="N14">
-        <v>1.083478333864078</v>
+        <v>0.9834508980255758</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.075890080824916</v>
+        <v>0.9523249963384324</v>
       </c>
       <c r="D15">
-        <v>1.068969846690537</v>
+        <v>0.9779936991813707</v>
       </c>
       <c r="E15">
-        <v>1.088627627063665</v>
+        <v>0.9713266968788525</v>
       </c>
       <c r="F15">
-        <v>1.093220838309571</v>
+        <v>0.9755284184371735</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047687057503558</v>
+        <v>1.023341829046648</v>
       </c>
       <c r="J15">
-        <v>1.082149155876027</v>
+        <v>0.9836609426373637</v>
       </c>
       <c r="K15">
-        <v>1.072403656440634</v>
+        <v>0.9932685951842612</v>
       </c>
       <c r="L15">
-        <v>1.091995090908085</v>
+        <v>0.9867353284556321</v>
       </c>
       <c r="M15">
-        <v>1.096573177059999</v>
+        <v>0.9908524861261153</v>
       </c>
       <c r="N15">
-        <v>1.083685931801614</v>
+        <v>0.985057854003396</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.077307854098073</v>
+        <v>0.9630223584997234</v>
       </c>
       <c r="D16">
-        <v>1.070073119865491</v>
+        <v>0.9863447167003299</v>
       </c>
       <c r="E16">
-        <v>1.090025117034085</v>
+        <v>0.9815764552353595</v>
       </c>
       <c r="F16">
-        <v>1.09462497048778</v>
+        <v>0.9858092589275579</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048089434520652</v>
+        <v>1.027040202932508</v>
       </c>
       <c r="J16">
-        <v>1.08335307019607</v>
+        <v>0.9927022152123334</v>
       </c>
       <c r="K16">
-        <v>1.073393445494802</v>
+        <v>1.00092756019183</v>
       </c>
       <c r="L16">
-        <v>1.093280548498355</v>
+        <v>0.9962488326028645</v>
       </c>
       <c r="M16">
-        <v>1.097865807970763</v>
+        <v>1.000402100390096</v>
       </c>
       <c r="N16">
-        <v>1.084891555818082</v>
+        <v>0.9941119662224706</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.078194857383044</v>
+        <v>0.9694474895457443</v>
       </c>
       <c r="D17">
-        <v>1.070763071509787</v>
+        <v>0.9913657114395508</v>
       </c>
       <c r="E17">
-        <v>1.090899519777784</v>
+        <v>0.9877381379961612</v>
       </c>
       <c r="F17">
-        <v>1.095503537344602</v>
+        <v>0.9919900573486257</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048340355612393</v>
+        <v>1.029257931777888</v>
       </c>
       <c r="J17">
-        <v>1.084105921586004</v>
+        <v>0.9981325888743113</v>
       </c>
       <c r="K17">
-        <v>1.074012076082223</v>
+        <v>1.005526843859978</v>
       </c>
       <c r="L17">
-        <v>1.094084572783395</v>
+        <v>1.001964633020595</v>
       </c>
       <c r="M17">
-        <v>1.098674329052839</v>
+        <v>1.006140002761967</v>
       </c>
       <c r="N17">
-        <v>1.085645476343344</v>
+        <v>0.999550051637921</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.078711405816565</v>
+        <v>0.9731017945878386</v>
       </c>
       <c r="D18">
-        <v>1.071164761236401</v>
+        <v>0.9942229818349717</v>
       </c>
       <c r="E18">
-        <v>1.091408762152629</v>
+        <v>0.9912443782647509</v>
       </c>
       <c r="F18">
-        <v>1.096015207763886</v>
+        <v>0.9955073174913867</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048486184883825</v>
+        <v>1.030517815790862</v>
       </c>
       <c r="J18">
-        <v>1.084544218251522</v>
+        <v>1.00122096472984</v>
       </c>
       <c r="K18">
-        <v>1.074372116107896</v>
+        <v>1.008142184838833</v>
       </c>
       <c r="L18">
-        <v>1.094552726587759</v>
+        <v>1.005215976252354</v>
       </c>
       <c r="M18">
-        <v>1.099145104787371</v>
+        <v>1.009404053744177</v>
       </c>
       <c r="N18">
-        <v>1.0860843954404</v>
+        <v>1.002642813341407</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.07888739671956</v>
+        <v>0.9743327746051073</v>
       </c>
       <c r="D19">
-        <v>1.071301601245152</v>
+        <v>0.9951857174649408</v>
       </c>
       <c r="E19">
-        <v>1.09158226922414</v>
+        <v>0.9924257679553006</v>
       </c>
       <c r="F19">
-        <v>1.096189542601885</v>
+        <v>0.9966924433035856</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048535819621116</v>
+        <v>1.030941957357099</v>
       </c>
       <c r="J19">
-        <v>1.084693526600763</v>
+        <v>1.002261268689398</v>
       </c>
       <c r="K19">
-        <v>1.074494746228679</v>
+        <v>1.009023079636843</v>
       </c>
       <c r="L19">
-        <v>1.09471221700616</v>
+        <v>1.006311282803195</v>
       </c>
       <c r="M19">
-        <v>1.099305489055155</v>
+        <v>1.010503663321788</v>
       </c>
       <c r="N19">
-        <v>1.086233915824623</v>
+        <v>1.003684594651911</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.078099776021926</v>
+        <v>0.9687679847688878</v>
       </c>
       <c r="D20">
-        <v>1.070689123765358</v>
+        <v>0.9908345345323362</v>
       </c>
       <c r="E20">
-        <v>1.090805785810445</v>
+        <v>0.987086306263077</v>
       </c>
       <c r="F20">
-        <v>1.095409356692277</v>
+        <v>0.9913361882914629</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048313488944043</v>
+        <v>1.029023539180819</v>
       </c>
       <c r="J20">
-        <v>1.084025233746835</v>
+        <v>0.9975583007490282</v>
       </c>
       <c r="K20">
-        <v>1.073945785503638</v>
+        <v>1.005040485193299</v>
       </c>
       <c r="L20">
-        <v>1.093998393674007</v>
+        <v>1.00136009280964</v>
       </c>
       <c r="M20">
-        <v>1.098587667581639</v>
+        <v>1.005533110541118</v>
       </c>
       <c r="N20">
-        <v>1.085564673918187</v>
+        <v>0.9989749479576282</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.075529346664147</v>
+        <v>0.9495121932841378</v>
       </c>
       <c r="D21">
-        <v>1.068689043642566</v>
+        <v>0.9757997764652386</v>
       </c>
       <c r="E21">
-        <v>1.088272081584365</v>
+        <v>0.9686334877419905</v>
       </c>
       <c r="F21">
-        <v>1.09286360545776</v>
+        <v>0.9728271928733776</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047584425003205</v>
+        <v>1.022368345326957</v>
       </c>
       <c r="J21">
-        <v>1.081842725741099</v>
+        <v>0.9812837077958965</v>
       </c>
       <c r="K21">
-        <v>1.072151628257106</v>
+        <v>0.9912546065322106</v>
       </c>
       <c r="L21">
-        <v>1.091667961673217</v>
+        <v>0.9842345137296798</v>
       </c>
       <c r="M21">
-        <v>1.096244225441504</v>
+        <v>0.9883423205797232</v>
       </c>
       <c r="N21">
-        <v>1.083379066500746</v>
+        <v>0.9826772432157814</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.073905486113721</v>
+        <v>0.936339233234174</v>
       </c>
       <c r="D22">
-        <v>1.0674245586628</v>
+        <v>0.9655369004737167</v>
       </c>
       <c r="E22">
-        <v>1.086671716939462</v>
+        <v>0.9560314218477655</v>
       </c>
       <c r="F22">
-        <v>1.091255658175646</v>
+        <v>0.9601884692215334</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047121175426844</v>
+        <v>1.017805261796659</v>
       </c>
       <c r="J22">
-        <v>1.080462777614424</v>
+        <v>0.9701521620845126</v>
       </c>
       <c r="K22">
-        <v>1.071016181793307</v>
+        <v>0.9818234527956972</v>
       </c>
       <c r="L22">
-        <v>1.090195075104456</v>
+        <v>0.9725272956436511</v>
       </c>
       <c r="M22">
-        <v>1.094763149080453</v>
+        <v>0.9765921218768177</v>
       </c>
       <c r="N22">
-        <v>1.081997158689449</v>
+        <v>0.9715298894326809</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.074767072295433</v>
+        <v>0.9434366955981236</v>
       </c>
       <c r="D23">
-        <v>1.068095556223669</v>
+        <v>0.9710639625182231</v>
       </c>
       <c r="E23">
-        <v>1.087520808468652</v>
+        <v>0.9628190581566654</v>
       </c>
       <c r="F23">
-        <v>1.092108770225386</v>
+        <v>0.9669956738254112</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047367217922213</v>
+        <v>1.020264530590619</v>
       </c>
       <c r="J23">
-        <v>1.081195058213999</v>
+        <v>0.9761493487105797</v>
       </c>
       <c r="K23">
-        <v>1.071618814130929</v>
+        <v>0.9869046112704521</v>
       </c>
       <c r="L23">
-        <v>1.090976618370037</v>
+        <v>0.9788340309709465</v>
       </c>
       <c r="M23">
-        <v>1.095549034888502</v>
+        <v>0.9829218476410166</v>
       </c>
       <c r="N23">
-        <v>1.082730479211469</v>
+        <v>0.9775355927516439</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.078142741745585</v>
+        <v>0.9690753100302151</v>
       </c>
       <c r="D24">
-        <v>1.070722539876213</v>
+        <v>0.9910747694799802</v>
       </c>
       <c r="E24">
-        <v>1.090848142570163</v>
+        <v>0.9873811101137233</v>
       </c>
       <c r="F24">
-        <v>1.095451915292219</v>
+        <v>0.9916319131210332</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048325630468324</v>
+        <v>1.029129554440347</v>
       </c>
       <c r="J24">
-        <v>1.084061695667741</v>
+        <v>0.9978180393321542</v>
       </c>
       <c r="K24">
-        <v>1.073975741823325</v>
+        <v>1.005260456298755</v>
       </c>
       <c r="L24">
-        <v>1.094037336836128</v>
+        <v>1.001633511789001</v>
       </c>
       <c r="M24">
-        <v>1.098626828705309</v>
+        <v>1.005807592857659</v>
       </c>
       <c r="N24">
-        <v>1.085601187619204</v>
+        <v>0.9992350553993347</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.082027776432071</v>
+        <v>0.995207813778438</v>
       </c>
       <c r="D25">
-        <v>1.073741798674359</v>
+        <v>1.011528003812085</v>
       </c>
       <c r="E25">
-        <v>1.094678791962751</v>
+        <v>1.012481361773975</v>
       </c>
       <c r="F25">
-        <v>1.099300881005407</v>
+        <v>1.0168132177601</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049417119337198</v>
+        <v>1.038110423398895</v>
       </c>
       <c r="J25">
-        <v>1.087355880284098</v>
+        <v>1.019897537438726</v>
       </c>
       <c r="K25">
-        <v>1.07667967491328</v>
+        <v>1.023949959885931</v>
       </c>
       <c r="L25">
-        <v>1.097557095216537</v>
+        <v>1.024888961916823</v>
       </c>
       <c r="M25">
-        <v>1.102166364316597</v>
+        <v>1.02915601873506</v>
       </c>
       <c r="N25">
-        <v>1.088900050355564</v>
+        <v>1.021345908925772</v>
       </c>
     </row>
   </sheetData>
